--- a/medicine/Sexualité et sexologie/Journal_of_the_History_of_Sexuality/Journal_of_the_History_of_Sexuality.xlsx
+++ b/medicine/Sexualité et sexologie/Journal_of_the_History_of_Sexuality/Journal_of_the_History_of_Sexuality.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Journal of the History of Sexuality est une revue académique à comité de lecture de sexologie créée en 1990 et publiée par l'University of Texas Press.
-Le Journal of the History of Sexuality est indexé et résumé par Amérique: History and Life, Bibliography of the History of Art, Criminal Justice Abstracts, Current Contents / Social and Behavioral Sciences, Historical Abstracts, International Bibliography of Periodical Literature, MLA Directory of Periodicals, MLA International Bibliography et Social Sciences Citation Index[1]. Selon le Journal Citation Reports, la revue a en 2013 un facteur d'impact de 0.487, la classant 10e sur 72 revues dans la catégorie « Histoire »[2] et 102e sur 138 revues dans la catégorie « Sociologie »[3].
+Le Journal of the History of Sexuality est indexé et résumé par Amérique: History and Life, Bibliography of the History of Art, Criminal Justice Abstracts, Current Contents / Social and Behavioral Sciences, Historical Abstracts, International Bibliography of Periodical Literature, MLA Directory of Periodicals, MLA International Bibliography et Social Sciences Citation Index. Selon le Journal Citation Reports, la revue a en 2013 un facteur d'impact de 0.487, la classant 10e sur 72 revues dans la catégorie « Histoire » et 102e sur 138 revues dans la catégorie « Sociologie ».
 </t>
         </is>
       </c>
